--- a/production/Antdrive-top-pos.xlsx
+++ b/production/Antdrive-top-pos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Antdrive\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F660B90-6800-4C8E-8FA7-B733801755A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CF933CF3-ABDC-4792-A0B4-9ABE7FC407F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="4320" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="4815" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Antdrive-top-pos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>C1</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>R7</t>
+  </si>
+  <si>
+    <t>U1</t>
   </si>
   <si>
     <t>U2</t>
@@ -94,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,12 +596,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -953,46 +957,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J19" sqref="J1:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>168.78299999999999</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-58.927999999999997</v>
-      </c>
-      <c r="D2" s="2">
-        <v>90</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="3">
+        <v>162.941</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-56.768999999999998</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1000,16 +1007,16 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>168.148</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-56.515000000000001</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="3">
+        <v>160</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-48.75</v>
+      </c>
+      <c r="D3" s="3">
+        <v>270</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1017,16 +1024,16 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>157.47999999999999</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-55.88</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="3">
+        <v>156.71799999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-40.005000000000003</v>
+      </c>
+      <c r="D4" s="3">
         <v>180</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1034,16 +1041,16 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>155.82900000000001</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-61.594999999999999</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3">
+        <v>174.625</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-51.689</v>
+      </c>
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1051,16 +1058,16 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>172.27549999999999</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-57.404000000000003</v>
-      </c>
-      <c r="D6" s="2">
-        <v>90</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="3">
+        <v>174.87899999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-42.545000000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>270</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1068,16 +1075,16 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>158.4325</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-60.769500000000001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>270</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="B7" s="3">
+        <v>171.45</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-53.466999999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1085,16 +1092,16 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>171.45</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-60.832999999999998</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3">
+        <v>167.89400000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-52.704999999999998</v>
+      </c>
+      <c r="D8" s="3">
         <v>270</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1102,16 +1109,16 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>161.29</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-60.96</v>
-      </c>
-      <c r="D9" s="2">
-        <v>90</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="B9" s="3">
+        <v>171.32300000000001</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-51.689</v>
+      </c>
+      <c r="D9" s="3">
+        <v>180</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1119,16 +1126,16 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>165.1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-56.515000000000001</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3">
+        <v>157.86099999999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-48.006</v>
+      </c>
+      <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1136,16 +1143,16 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>154.30500000000001</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-55.88</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3">
+        <v>167.89400000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-50.292000000000002</v>
+      </c>
+      <c r="D11" s="3">
         <v>180</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1153,16 +1160,16 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>170.56100000000001</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-57.404000000000003</v>
-      </c>
-      <c r="D12" s="2">
-        <v>270</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="B12" s="3">
+        <v>175.64099999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-40.131999999999998</v>
+      </c>
+      <c r="D12" s="3">
+        <v>180</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1170,16 +1177,16 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>160.655</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-55.88</v>
-      </c>
-      <c r="D13" s="2">
-        <v>180</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="B13" s="3">
+        <v>167.89400000000001</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-55.118000000000002</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1187,16 +1194,16 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>153.4795</v>
-      </c>
-      <c r="C14" s="2">
-        <v>-60.832999999999998</v>
-      </c>
-      <c r="D14" s="2">
-        <v>90</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="B14" s="3">
+        <v>174.625</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-53.466999999999999</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1204,16 +1211,16 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>155.82900000000001</v>
-      </c>
-      <c r="C15" s="2">
-        <v>-60.070999999999998</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3">
+        <v>171.32300000000001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-55.118000000000002</v>
+      </c>
+      <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1221,16 +1228,16 @@
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
-        <v>169.16399999999999</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-52.07</v>
-      </c>
-      <c r="D16" s="2">
-        <v>270</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="B16" s="3">
+        <v>157</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-53</v>
+      </c>
+      <c r="D16" s="3">
+        <v>90</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1238,16 +1245,16 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
-        <v>156.21</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-52.07</v>
-      </c>
-      <c r="D17" s="2">
-        <v>270</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="B17" s="3">
+        <v>168.91</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-45.085000000000001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1255,16 +1262,33 @@
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
-        <v>165.35400000000001</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-59.944000000000003</v>
-      </c>
-      <c r="D18" s="2">
-        <v>180</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="B18" s="3">
+        <v>158.85</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-44.637500000000003</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>163.703</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-53.466999999999999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>90</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>1</v>
       </c>
     </row>

--- a/production/Antdrive-top-pos.xlsx
+++ b/production/Antdrive-top-pos.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Antdrive\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CF933CF3-ABDC-4792-A0B4-9ABE7FC407F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF543C1A-EF3E-4F43-AB72-46CD5DB32169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="4815" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="3270" yWindow="7170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antdrive-top-pos" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -957,11 +957,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J1:P19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1099,7 @@
         <v>-52.704999999999998</v>
       </c>
       <c r="D8" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>1</v>
@@ -1235,7 +1235,7 @@
         <v>-53</v>
       </c>
       <c r="D16" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>-45.085000000000001</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>-44.637500000000003</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>1</v>

--- a/production/Antdrive-top-pos.xlsx
+++ b/production/Antdrive-top-pos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Antdrive\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF543C1A-EF3E-4F43-AB72-46CD5DB32169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E37A0-CAC8-4E8F-907B-3ABC50EA4D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="7170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antdrive-top-pos" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>D2</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
     <t>R7</t>
   </si>
   <si>
+    <t>R8</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -79,19 +79,19 @@
     <t>U5</t>
   </si>
   <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>Mid Y</t>
+  </si>
+  <si>
+    <t>Mid X</t>
+  </si>
+  <si>
     <t>Designator</t>
-  </si>
-  <si>
-    <t>Mid X</t>
-  </si>
-  <si>
-    <t>Mid Y</t>
-  </si>
-  <si>
-    <t>Rotation</t>
-  </si>
-  <si>
-    <t>Layer</t>
   </si>
 </sst>
 </file>
@@ -596,13 +596,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -960,335 +957,332 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>162.941</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>-56.768999999999998</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>160</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>-48.75</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>270</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>156.71799999999999</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>-40.005000000000003</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>180</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>174.625</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-51.689</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="1">
+        <v>171.196</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-51.942999999999998</v>
+      </c>
+      <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>174.87899999999999</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="1">
+        <v>175.387</v>
+      </c>
+      <c r="C6" s="1">
         <v>-42.545000000000002</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>270</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>171.45</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="1">
+        <v>171.32300000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-53.847999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>153.28899999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-38.988999999999997</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>157.86099999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-48.006</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>167.89400000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-50.292000000000002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>180</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>176.149</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-40.131999999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>180</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>167.89400000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-55.244999999999997</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>173.73599999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-40.893999999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>270</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>167.89400000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-53.594000000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>167.89400000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-51.942999999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>157</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-53</v>
+      </c>
+      <c r="D16" s="1">
+        <v>270</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>168.91</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-45.085000000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>270</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>158.85</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-44.637500000000003</v>
+      </c>
+      <c r="D18" s="1">
+        <v>270</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>163.703</v>
+      </c>
+      <c r="C19" s="1">
         <v>-53.466999999999999</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>167.89400000000001</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-52.704999999999998</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="D19" s="1">
         <v>90</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>171.32300000000001</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-51.689</v>
-      </c>
-      <c r="D9" s="3">
-        <v>180</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>157.86099999999999</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-48.006</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>167.89400000000001</v>
-      </c>
-      <c r="C11" s="3">
-        <v>-50.292000000000002</v>
-      </c>
-      <c r="D11" s="3">
-        <v>180</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>175.64099999999999</v>
-      </c>
-      <c r="C12" s="3">
-        <v>-40.131999999999998</v>
-      </c>
-      <c r="D12" s="3">
-        <v>180</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>167.89400000000001</v>
-      </c>
-      <c r="C13" s="3">
-        <v>-55.118000000000002</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>174.625</v>
-      </c>
-      <c r="C14" s="3">
-        <v>-53.466999999999999</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>171.32300000000001</v>
-      </c>
-      <c r="C15" s="3">
-        <v>-55.118000000000002</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>157</v>
-      </c>
-      <c r="C16" s="3">
-        <v>-53</v>
-      </c>
-      <c r="D16" s="3">
-        <v>270</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>168.91</v>
-      </c>
-      <c r="C17" s="3">
-        <v>-45.085000000000001</v>
-      </c>
-      <c r="D17" s="3">
-        <v>270</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>158.85</v>
-      </c>
-      <c r="C18" s="3">
-        <v>-44.637500000000003</v>
-      </c>
-      <c r="D18" s="3">
-        <v>270</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>163.703</v>
-      </c>
-      <c r="C19" s="3">
-        <v>-53.466999999999999</v>
-      </c>
-      <c r="D19" s="3">
-        <v>90</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/production/Antdrive-top-pos.xlsx
+++ b/production/Antdrive-top-pos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Antdrive\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E37A0-CAC8-4E8F-907B-3ABC50EA4D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0579A84E-343D-4917-B36B-519E17384DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,10 +596,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -955,15 +956,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -980,7 +981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>175.387</v>
       </c>
       <c r="C6" s="1">
-        <v>-42.545000000000002</v>
+        <v>-44.45</v>
       </c>
       <c r="D6" s="1">
         <v>270</v>
@@ -1064,8 +1065,11 @@
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1081,8 +1085,11 @@
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1098,8 +1105,11 @@
       <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1115,8 +1125,11 @@
       <c r="E9" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1132,25 +1145,31 @@
       <c r="E10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>176.149</v>
+        <v>175.387</v>
       </c>
       <c r="C11" s="1">
-        <v>-40.131999999999998</v>
+        <v>-40.893999999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1167,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1184,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1201,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1218,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
